--- a/etikom/static/file/ornek-iade-dosyasi.xlsx
+++ b/etikom/static/file/ornek-iade-dosyasi.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oktay\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oktay\Desktop\emuhasebe\etikom\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146BEA98-2C07-4914-813D-90D39317CA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88337406-A74B-4B7E-B547-91422799CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{86F3079F-4753-4881-B42E-C7974ACE6E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="29" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$C$35</definedName>
   </definedNames>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Sipariş No</t>
   </si>
@@ -76,6 +73,48 @@
   </si>
   <si>
     <t>İade Kargo Tutarı</t>
+  </si>
+  <si>
+    <t>Pixel 7a</t>
+  </si>
+  <si>
+    <t>Nokia 3210</t>
+  </si>
+  <si>
+    <t>Redmi A2</t>
+  </si>
+  <si>
+    <t>iPhone 14</t>
+  </si>
+  <si>
+    <t>Galaxy A35</t>
+  </si>
+  <si>
+    <t>Galaxy S24</t>
+  </si>
+  <si>
+    <t>Galaxy M15</t>
+  </si>
+  <si>
+    <t>Xperia L3</t>
+  </si>
+  <si>
+    <t>Galaxy C55</t>
+  </si>
+  <si>
+    <t>Pixel 3a</t>
+  </si>
+  <si>
+    <t>Galaxy F34</t>
+  </si>
+  <si>
+    <t>iPhone 12</t>
+  </si>
+  <si>
+    <t>Redmi 12</t>
+  </si>
+  <si>
+    <t>Xperia Pro</t>
   </si>
 </sst>
 </file>
@@ -134,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -157,6 +196,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,1046 +214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sayfa1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>Sipariş No</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Stok Kodu</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Adet</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2">
-            <v>22623665</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Redmi 13C</v>
-          </cell>
-          <cell r="E2">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>43108801</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>iPhone 15</v>
-          </cell>
-          <cell r="E3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>71102057</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Galaxy A35</v>
-          </cell>
-          <cell r="E4">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>85234553</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Redmi A2</v>
-          </cell>
-          <cell r="E5">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>85234553</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>iPhone 14</v>
-          </cell>
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>103378891</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Redmi 12</v>
-          </cell>
-          <cell r="E7">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>123578045</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>Galaxy C55</v>
-          </cell>
-          <cell r="E8">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>123578045</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>Xperia Pro</v>
-          </cell>
-          <cell r="E9">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>134214508</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>Redmi 12</v>
-          </cell>
-          <cell r="E10">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>253084405</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>Pixel 8a</v>
-          </cell>
-          <cell r="E11">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>333452346</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>Redmi K70</v>
-          </cell>
-          <cell r="E12">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>517710605</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>Galaxy S24</v>
-          </cell>
-          <cell r="E13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>678342346</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>Xperia L3</v>
-          </cell>
-          <cell r="E14">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>736742133</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>Pixel 8a</v>
-          </cell>
-          <cell r="E15">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>956423677</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>iPhone 12</v>
-          </cell>
-          <cell r="E16">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>1026904729</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>Nokia 6310</v>
-          </cell>
-          <cell r="E17">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>1026904729</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>Nokia 5310</v>
-          </cell>
-          <cell r="E18">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>1133852021</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>Galaxy A35</v>
-          </cell>
-          <cell r="E19">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>2220804779</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>iPhone 11</v>
-          </cell>
-          <cell r="E20">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>2220804779</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>Xperia E5</v>
-          </cell>
-          <cell r="E21">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>2220804779</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>Pixel 7a</v>
-          </cell>
-          <cell r="E22">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>2220804779</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>Galaxy M15</v>
-          </cell>
-          <cell r="E23">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>3014287220</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>iPhone 15</v>
-          </cell>
-          <cell r="E24">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>3506164310</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>Xperia Pro</v>
-          </cell>
-          <cell r="E25">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>4133852021</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>Redmi A2</v>
-          </cell>
-          <cell r="E26">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>6820774839</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>iPhone 14</v>
-          </cell>
-          <cell r="E27">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>6820774839</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>Redmi 13C</v>
-          </cell>
-          <cell r="E28">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>8231004393</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>iPhone 12</v>
-          </cell>
-          <cell r="E29">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>0162681874</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>Xperia E5</v>
-          </cell>
-          <cell r="E30">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>0167466580</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>Galaxy M15</v>
-          </cell>
-          <cell r="E31">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>0181675441</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>Pixel 7a</v>
-          </cell>
-          <cell r="E32">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>0209732363</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>iPhone 13</v>
-          </cell>
-          <cell r="E33">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>0209732363</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>Pixel 3a</v>
-          </cell>
-          <cell r="E34">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>0209732363</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>Galaxy F34</v>
-          </cell>
-          <cell r="E35">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>0544329706</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>iPhone 15</v>
-          </cell>
-          <cell r="E36">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>0544329706</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>Redmi A2</v>
-          </cell>
-          <cell r="E37">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>0612203778</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>iPhone 14</v>
-          </cell>
-          <cell r="E38">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>0855254882</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>Nokia 3210</v>
-          </cell>
-          <cell r="E39">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>0867980252</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>iPhone 11</v>
-          </cell>
-          <cell r="E40">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>0894058514</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>Nokia 6310</v>
-          </cell>
-          <cell r="E41">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>0970552935</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>Nokia 5310</v>
-          </cell>
-          <cell r="E42">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>201654993112</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>Redmi 12</v>
-          </cell>
-          <cell r="E43">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>203568993113</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>Pixel 8a</v>
-          </cell>
-          <cell r="E44">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>203836342114</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>Xperia L3</v>
-          </cell>
-          <cell r="E45">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>204132361118</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>Xperia L3</v>
-          </cell>
-          <cell r="E46">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>204328159113</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>Galaxy C55</v>
-          </cell>
-          <cell r="E47">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>206-4556993-6940322</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>iPhone 13</v>
-          </cell>
-          <cell r="E48">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>207126281513</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>Redmi 13C</v>
-          </cell>
-          <cell r="E49">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>207651611518</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>Galaxy A35</v>
-          </cell>
-          <cell r="E50">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>207651611518</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>Galaxy S24</v>
-          </cell>
-          <cell r="E51">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v>207651611518</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>Redmi K70</v>
-          </cell>
-          <cell r="E52">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>208953621116</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>iPhone 12</v>
-          </cell>
-          <cell r="E53">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>2155139405</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>iPhone 11</v>
-          </cell>
-          <cell r="E54">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>2178022710</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>Xperia E5</v>
-          </cell>
-          <cell r="E55">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56" t="str">
-            <v>2179513391</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>Pixel 7a</v>
-          </cell>
-          <cell r="E56">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57" t="str">
-            <v>2187873895</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>Galaxy M15</v>
-          </cell>
-          <cell r="E57">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v>2187873895</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>Nokia 3210</v>
-          </cell>
-          <cell r="E58">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59" t="str">
-            <v>2187873895</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>iPhone 13</v>
-          </cell>
-          <cell r="E59">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60" t="str">
-            <v>2189862224</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>Pixel 3a</v>
-          </cell>
-          <cell r="E60">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61" t="str">
-            <v>2193628182</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>Galaxy F34</v>
-          </cell>
-          <cell r="E61">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62" t="str">
-            <v>2194079961</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>Nokia 6310</v>
-          </cell>
-          <cell r="E62">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63" t="str">
-            <v>2196056265</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>Nokia 5310</v>
-          </cell>
-          <cell r="E63">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64" t="str">
-            <v>2198267632</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>iPhone 15</v>
-          </cell>
-          <cell r="E64">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65" t="str">
-            <v>2198701803</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>Redmi A2</v>
-          </cell>
-          <cell r="E65">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66" t="str">
-            <v>2198701803</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>iPhone 14</v>
-          </cell>
-          <cell r="E66">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67" t="str">
-            <v>2198701803</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>Redmi 13C</v>
-          </cell>
-          <cell r="E67">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68" t="str">
-            <v>2198701803</v>
-          </cell>
-          <cell r="D68" t="str">
-            <v>Galaxy A35</v>
-          </cell>
-          <cell r="E68">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69" t="str">
-            <v>2206943111</v>
-          </cell>
-          <cell r="D69" t="str">
-            <v>Galaxy S24</v>
-          </cell>
-          <cell r="E69">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70" t="str">
-            <v>2211973850</v>
-          </cell>
-          <cell r="D70" t="str">
-            <v>Redmi K70</v>
-          </cell>
-          <cell r="E70">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71" t="str">
-            <v>2213962238</v>
-          </cell>
-          <cell r="D71" t="str">
-            <v>Xperia L3</v>
-          </cell>
-          <cell r="E71">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72" t="str">
-            <v>2215870469</v>
-          </cell>
-          <cell r="D72" t="str">
-            <v>Galaxy C55</v>
-          </cell>
-          <cell r="E72">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73" t="str">
-            <v>2216242550</v>
-          </cell>
-          <cell r="D73" t="str">
-            <v>Xperia Pro</v>
-          </cell>
-          <cell r="E73">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74" t="str">
-            <v>2216655464</v>
-          </cell>
-          <cell r="D74" t="str">
-            <v>iPhone 12</v>
-          </cell>
-          <cell r="E74">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75" t="str">
-            <v>2217289042</v>
-          </cell>
-          <cell r="D75" t="str">
-            <v>Redmi 12</v>
-          </cell>
-          <cell r="E75">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76" t="str">
-            <v>2218186053</v>
-          </cell>
-          <cell r="D76" t="str">
-            <v>Pixel 8a</v>
-          </cell>
-          <cell r="E76">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77" t="str">
-            <v>2229107178</v>
-          </cell>
-          <cell r="D77" t="str">
-            <v>Nokia 3210</v>
-          </cell>
-          <cell r="E77">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78" t="str">
-            <v>2229653886</v>
-          </cell>
-          <cell r="D78" t="str">
-            <v>iPhone 13</v>
-          </cell>
-          <cell r="E78">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79" t="str">
-            <v>2231013685</v>
-          </cell>
-          <cell r="D79" t="str">
-            <v>Pixel 3a</v>
-          </cell>
-          <cell r="E79">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80" t="str">
-            <v>2231902881</v>
-          </cell>
-          <cell r="D80" t="str">
-            <v>Galaxy F34</v>
-          </cell>
-          <cell r="E80">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81" t="str">
-            <v>2232276142</v>
-          </cell>
-          <cell r="D81" t="str">
-            <v>Nokia 6310</v>
-          </cell>
-          <cell r="E81">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82" t="str">
-            <v>2232276142</v>
-          </cell>
-          <cell r="D82" t="str">
-            <v>Nokia 5310</v>
-          </cell>
-          <cell r="E82">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83" t="str">
-            <v>310843320</v>
-          </cell>
-          <cell r="D83" t="str">
-            <v>Galaxy C55</v>
-          </cell>
-          <cell r="E83">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84" t="str">
-            <v>312567916</v>
-          </cell>
-          <cell r="D84" t="str">
-            <v>Galaxy S24</v>
-          </cell>
-          <cell r="E84">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85" t="str">
-            <v>313044752</v>
-          </cell>
-          <cell r="D85" t="str">
-            <v>Redmi K70</v>
-          </cell>
-          <cell r="E85">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86" t="str">
-            <v>313086544</v>
-          </cell>
-          <cell r="D86" t="str">
-            <v>Xperia L3</v>
-          </cell>
-          <cell r="E86">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87" t="str">
-            <v>400-3879588-5461964</v>
-          </cell>
-          <cell r="D87" t="str">
-            <v>Nokia 3210</v>
-          </cell>
-          <cell r="E87">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88" t="str">
-            <v>508-1253178-1185143</v>
-          </cell>
-          <cell r="D88" t="str">
-            <v>Pixel 3a</v>
-          </cell>
-          <cell r="E88">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89" t="str">
-            <v>702-8409886-6533165</v>
-          </cell>
-          <cell r="D89" t="str">
-            <v>Galaxy F34</v>
-          </cell>
-          <cell r="E89">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90" t="str">
-            <v>C6B92QH5Z-013554</v>
-          </cell>
-          <cell r="D90" t="str">
-            <v>Xperia E5</v>
-          </cell>
-          <cell r="E90">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91" t="str">
-            <v>K4L2IQH9S-099308</v>
-          </cell>
-          <cell r="D91" t="str">
-            <v>Pixel 7a</v>
-          </cell>
-          <cell r="E91">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92" t="str">
-            <v>L7B9IQH1R-081223</v>
-          </cell>
-          <cell r="D92" t="str">
-            <v>iPhone 11</v>
-          </cell>
-          <cell r="E92">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93" t="str">
-            <v>S3B9IQH1R-020807</v>
-          </cell>
-          <cell r="D93" t="str">
-            <v>Galaxy M15</v>
-          </cell>
-          <cell r="E93">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1513,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2A9167-9377-494C-AB4F-1FE7F20C4B14}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1546,9 +548,8 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f>VLOOKUP(A2,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Pixel 7a</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -1564,9 +565,8 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f>VLOOKUP(A3,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Nokia 3210</v>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1582,9 +582,8 @@
       <c r="A4" s="2">
         <v>4133852021</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f>VLOOKUP(A4,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Redmi A2</v>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -1600,12 +599,10 @@
       <c r="A5" s="2">
         <v>6820774839</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <f>VLOOKUP(A5,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>iPhone 14</v>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <f>VLOOKUP(A5,[1]Sayfa1!$C:$E,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D5" s="3">
@@ -1619,9 +616,8 @@
       <c r="A6" s="2">
         <v>1133852021</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <f>VLOOKUP(A6,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Galaxy A35</v>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -1637,12 +633,10 @@
       <c r="A7" s="2">
         <v>517710605</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <f>VLOOKUP(A7,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Galaxy S24</v>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <f>VLOOKUP(A7,[1]Sayfa1!$C:$E,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D7" s="3">
@@ -1656,9 +650,8 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <f>VLOOKUP(A8,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Galaxy M15</v>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1674,9 +667,8 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <f>VLOOKUP(A9,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Xperia L3</v>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1692,9 +684,8 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <f>VLOOKUP(A10,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Galaxy C55</v>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -1710,9 +701,8 @@
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <f>VLOOKUP(A11,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Galaxy M15</v>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1728,9 +718,8 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <f>VLOOKUP(A12,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Pixel 3a</v>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -1746,12 +735,10 @@
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <f>VLOOKUP(A13,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Galaxy F34</v>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="2">
-        <f>VLOOKUP(A13,[1]Sayfa1!$C:$E,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D13" s="3">
@@ -1765,9 +752,8 @@
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <f>VLOOKUP(A14,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>iPhone 12</v>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1783,12 +769,10 @@
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <f>VLOOKUP(A15,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Redmi 12</v>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="2">
-        <f>VLOOKUP(A15,[1]Sayfa1!$C:$E,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D15" s="3">
@@ -1802,9 +786,8 @@
       <c r="A16" s="2">
         <v>3506164310</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <f>VLOOKUP(A16,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>Xperia Pro</v>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -1820,12 +803,10 @@
       <c r="A17" s="2">
         <v>8231004393</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <f>VLOOKUP(A17,[1]Sayfa1!$C:$D,2,FALSE)</f>
-        <v>iPhone 12</v>
+      <c r="B17" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="2">
-        <f>VLOOKUP(A17,[1]Sayfa1!$C:$E,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D17" s="3">
@@ -2280,7 +1261,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A8:A10 A11:A13 A14:A15" numberStoredAsText="1"/>
+    <ignoredError sqref="A8:A15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>